--- a/EOBReceiveFeesFromUnitedHealth/EOB.xlsx
+++ b/EOBReceiveFeesFromUnitedHealth/EOB.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,27 +427,27 @@
       <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>GUERRERO</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>CLOBYS</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>01/09/24</t>
+          <t>05/05/23</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I1" t="inlineStr"/>
@@ -461,7 +461,7 @@
       <c r="M1" t="inlineStr"/>
       <c r="N1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 56750125   $0.00
 </t>
         </is>
       </c>
@@ -487,27 +487,27 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>GUERRERO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>CLOBYS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01/11/24</t>
+          <t>05/09/23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -521,7 +521,7 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 56750125   $0.00
 </t>
         </is>
       </c>
@@ -547,27 +547,27 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BAUTISTA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01/18/24</t>
+          <t>06/16/23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -581,7 +581,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57037509   $0.00
 </t>
         </is>
       </c>
@@ -607,27 +607,27 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>VITALONE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>ANTHONY</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01/23/24</t>
+          <t>08/10/23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$650.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$532.40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -641,7 +641,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57552462   $0.00
 </t>
         </is>
       </c>
@@ -667,27 +667,27 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>ATTENBOROUGH</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>LIDA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01/26/24</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -727,27 +727,27 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>ATTENBOROUGH</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>LIDA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>01/29/24</t>
+          <t>07/15/23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -761,7 +761,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -787,27 +787,27 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>ATTENBOROUGH</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>LIDA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02/02/24</t>
+          <t>07/20/23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -821,7 +821,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -847,27 +847,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>ATTENBOROUGH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>LIDA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02/05/24</t>
+          <t>07/22/23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -881,7 +881,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -907,27 +907,27 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02/09/24</t>
+          <t>06/01/23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -941,7 +941,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -967,27 +967,27 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02/12/24</t>
+          <t>06/02/23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1027,27 +1027,27 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02/15/24</t>
+          <t>06/06/23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1061,7 +1061,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1087,27 +1087,27 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02/16/24</t>
+          <t>06/07/23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1147,27 +1147,27 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CAYNE</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TAARIQ</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02/22/24</t>
+          <t>06/12/23</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>$74.57</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1207,27 +1207,27 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COHEN</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>STEPHEN</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02/15/24</t>
+          <t>06/14/23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>$338.80</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1267,27 +1267,27 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COHEN</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>STEPHEN</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02/19/24</t>
+          <t>06/16/23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>$338.80</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1327,27 +1327,27 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HSWE</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BARBARA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01/27/24</t>
+          <t>07/03/23</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>$343.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1361,7 +1361,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1387,27 +1387,27 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>01/27/24</t>
+          <t>07/20/23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1447,27 +1447,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CAITLIN</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02/20/24</t>
+          <t>07/21/23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>$69.38</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57544256   $0.00
 </t>
         </is>
       </c>
@@ -1507,27 +1507,27 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RYAN</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CAITLIN</t>
+          <t>EDWARD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02/26/24</t>
+          <t>07/28/23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>$69.38</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 74876942   $5,013.93
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1567,27 +1567,27 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BAUTISTA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02/20/24</t>
+          <t>07/28/23</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1627,27 +1627,27 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BAUTISTA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02/22/24</t>
+          <t>08/04/23</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1687,27 +1687,27 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ROMERO</t>
+          <t>BAUTISTA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KINDA</t>
+          <t>JAMES</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02/26/24</t>
+          <t>08/07/23</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>$294.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1721,7 +1721,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1747,27 +1747,27 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>BUTLER</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>JONATHAN</t>
+          <t>LYDIA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>01/22/24</t>
+          <t>08/07/23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1807,27 +1807,27 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>GIORDANO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>JONATHAN</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>01/24/24</t>
+          <t>07/26/23</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$625.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1867,27 +1867,27 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>MCINTOSH</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>JONATHAN</t>
+          <t>JOSHUA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>01/29/24</t>
+          <t>08/04/23</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1927,27 +1927,27 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>MCINTOSH</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>JONATHAN</t>
+          <t>JOSHUA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>01/31/24</t>
+          <t>08/07/23</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -1987,27 +1987,27 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HAN</t>
+          <t>PACTONG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>JONATHAN</t>
+          <t>ALISON</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>02/20/24</t>
+          <t>07/13/23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>$245.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -2047,27 +2047,27 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COHEN</t>
+          <t>PACTONG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>STEPHEN</t>
+          <t>ALISON</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>02/13/24</t>
+          <t>07/26/23</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>$338.80</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -2107,27 +2107,27 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HSWE</t>
+          <t>PACTONG</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BARBARA</t>
+          <t>ALISON</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02/06/24</t>
+          <t>07/31/23</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>$725.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>$343.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -2167,27 +2167,27 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>PACTONG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>ALISON</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>02/01/24</t>
+          <t>08/04/23</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2201,7 +2201,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -2227,27 +2227,27 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>PACTONG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>ALISON</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>02/03/24</t>
+          <t>08/07/23</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -2261,7 +2261,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -2287,27 +2287,27 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>DAVILA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>MICHELLE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>02/08/24</t>
+          <t>08/07/23</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2321,7 +2321,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 57959836   $0.00
 </t>
         </is>
       </c>
@@ -2347,27 +2347,27 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>EDWARD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>02/10/24</t>
+          <t>07/25/23</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 58053885   $0.00
 </t>
         </is>
       </c>
@@ -2407,27 +2407,27 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>EDWARD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02/15/24</t>
+          <t>07/31/23</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 58053885   $0.00
 </t>
         </is>
       </c>
@@ -2467,27 +2467,27 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>ATTENBOROUGH</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>LIDA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02/17/24</t>
+          <t>08/19/23</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2501,7 +2501,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59542126   $0.00
 </t>
         </is>
       </c>
@@ -2527,27 +2527,27 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>FISHER</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>ALEXANDRA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02/24/24</t>
+          <t>08/17/23</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59542126   $0.00
 </t>
         </is>
       </c>
@@ -2587,27 +2587,27 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BOSAKA</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NATSUKO</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02/29/24</t>
+          <t>06/22/23</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>$252.00</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2621,7 +2621,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -2647,27 +2647,27 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BLANCAFLOR</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LORNA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02/05/24</t>
+          <t>06/30/23</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>$99.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2681,7 +2681,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -2707,27 +2707,27 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BLANCAFLOR</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LORNA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02/08/24</t>
+          <t>07/05/23</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>$99.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -2767,27 +2767,27 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BLANCAFLOR</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LORNA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02/12/24</t>
+          <t>07/11/23</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>$99.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -2827,27 +2827,27 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>BLANCAFLOR</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LORNA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02/15/24</t>
+          <t>08/04/23</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>$99.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -2887,27 +2887,27 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BLANCAFLOR</t>
+          <t>BARRETT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LORNA</t>
+          <t>KEVIN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>02/19/24</t>
+          <t>08/14/23</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>$99.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -2947,27 +2947,27 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BLANCAFLOR</t>
+          <t>MARTINEZ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LORNA</t>
+          <t>EDWARD</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>02/22/24</t>
+          <t>08/22/23</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>$625.00</t>
+          <t>$875.00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>$99.43</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2981,7 +2981,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 59747405   $0.00
 </t>
         </is>
       </c>
@@ -3007,17 +3007,17 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>BATTISTA</t>
+          <t>HAN</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>YOUNG</t>
+          <t>JONATHAN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10/02/23</t>
+          <t>02/16/24</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>$369.75</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
+          <t xml:space="preserve"> TZ 75521417   $0.00
 </t>
         </is>
       </c>
@@ -3056,666 +3056,6 @@
         </is>
       </c>
       <c r="Q44" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>BATTISTA</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>YOUNG</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>10/06/23</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>$369.75</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>BATTISTA</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>YOUNG</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>10/13/23</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>$369.75</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>BATTISTA</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>YOUNG</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>10/18/23</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>$294.00</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>11/04/23</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>$200.01</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>11/06/23</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>$192.51</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>11/08/23</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>$187.38</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>11/10/23</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>$187.38</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>11/13/23</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>$187.38</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>11/15/23</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>$187.38</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>ZHOU</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>XUEHAN</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>11/17/23</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>$187.38</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>HSWE</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>BARBARA</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>02/19/24</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>$725.00</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>$431.38</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> TZ 75645438   $8,565.43
-</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
